--- a/sputnik/personal/ee/183ee.xlsx
+++ b/sputnik/personal/ee/183ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,20 +36,32 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>доплатила</t>
-  </si>
-  <si>
-    <t>к доплате 45,46</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,29 +84,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,65 +116,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -204,46 +133,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -304,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,10 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,7 +267,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -547,389 +442,274 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F14:F15"/>
+      <selection activeCell="A4" sqref="A4:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="4">
-        <v>43257</v>
+        <v>43345</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>13866</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>14780</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>7713</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>8100</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
-        <v>43282</v>
+        <v>43643</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>14366</v>
+        <v>15390</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C2</f>
-        <v>500</v>
+        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
+        <v>610</v>
       </c>
       <c r="E4" s="6">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+        <v>2787.7000000000003</v>
+      </c>
+      <c r="G4" s="9">
+        <f>SUM(F4,F5)</f>
+        <v>3447.34</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3401.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>8020</v>
+        <v>8376</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C3</f>
-        <v>307</v>
+        <f t="shared" si="0"/>
+        <v>276</v>
       </c>
       <c r="E5" s="6">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
-        <f>D5*E5</f>
-        <v>721.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>659.64</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
-        <v>43345</v>
+        <v>43677</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>14780</v>
+        <v>15685</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C4</f>
-        <v>414</v>
+        <f t="shared" si="0"/>
+        <v>295</v>
       </c>
       <c r="E6" s="6">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1324.55</v>
+      </c>
+      <c r="G6" s="9">
+        <f>SUM(F6,F7)</f>
+        <v>1586.99</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1586.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>8100</v>
+        <v>8484</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C5</f>
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>108</v>
       </c>
       <c r="E7" s="6">
-        <v>2.35</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>262.44</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
-        <v>43440</v>
+        <v>43704</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>15933</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.49</v>
+      </c>
       <c r="F8" s="6">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>43643</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1113.52</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(F8,F9)</f>
+        <v>1298.2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1298.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>15390</v>
+        <v>8560</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C6</f>
-        <v>610</v>
-      </c>
-      <c r="E9" s="16">
-        <v>4.57</v>
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
-        <v>2787.7000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8376</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-C7</f>
-        <v>276</v>
-      </c>
-      <c r="E10" s="16">
-        <v>2.39</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>659.64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>43643</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="21"/>
+        <f t="shared" si="1"/>
+        <v>184.68</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SUM(G2:G9)</f>
+        <v>6332.53</v>
+      </c>
+      <c r="H10" s="2">
+        <f>SUM(H2:H9)</f>
+        <v>6287.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>43677</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>15685</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C9</f>
-        <v>295</v>
-      </c>
-      <c r="E12" s="16">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>1324.55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>8484</v>
-      </c>
-      <c r="D13" s="3">
-        <f>C13-C10</f>
-        <v>108</v>
-      </c>
-      <c r="E13" s="16">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
-        <v>262.44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>43704</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>15933</v>
-      </c>
-      <c r="D14" s="3">
-        <f>C14-C12</f>
-        <v>248</v>
-      </c>
-      <c r="E14" s="16">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f>D14*E14</f>
-        <v>1113.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>8560</v>
-      </c>
-      <c r="D15" s="3">
-        <f>C15-C13</f>
-        <v>76</v>
-      </c>
-      <c r="E15" s="16">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
-        <v>184.68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <f>SUM(H10,-G10)</f>
+        <v>-45.460000000000036</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B11:C11"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -937,12 +717,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -951,12 +731,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/183ee.xlsx
+++ b/sputnik/personal/ee/183ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -52,16 +52,22 @@
   </si>
   <si>
     <t>к доплате</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>доплата</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +239,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,6 +274,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -442,17 +450,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
@@ -467,7 +475,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -493,7 +501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43345</v>
       </c>
@@ -509,7 +517,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -523,7 +531,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43643</v>
       </c>
@@ -552,7 +560,7 @@
         <v>3401.88</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -574,7 +582,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43677</v>
       </c>
@@ -603,7 +611,7 @@
         <v>1586.99</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -625,7 +633,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43704</v>
       </c>
@@ -654,7 +662,7 @@
         <v>1298.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -676,37 +684,108 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>16568</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="2">C10-C8</f>
+        <v>635</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
+        <v>2851.15</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(F10,F11)</f>
+        <v>3400.33</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3445.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8786</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>226</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="3"/>
+        <v>549.18000000000006</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45.46</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="2">
-        <f>SUM(G2:G9)</f>
-        <v>6332.53</v>
-      </c>
-      <c r="H10" s="2">
-        <f>SUM(H2:H9)</f>
-        <v>6287.07</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="G13" s="2">
+        <f>SUM(G2:G11)</f>
+        <v>9732.86</v>
+      </c>
+      <c r="H13" s="2">
+        <f>SUM(H2:H11)</f>
+        <v>9732.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <f>SUM(H10,-G10)</f>
-        <v>-45.460000000000036</v>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <f>SUM(H13,-G13)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -717,12 +796,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -731,12 +810,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/183ee.xlsx
+++ b/sputnik/personal/ee/183ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>к доплате</t>
-  </si>
-  <si>
-    <t>Т</t>
-  </si>
-  <si>
-    <t>доплата</t>
   </si>
 </sst>
 </file>
@@ -454,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -737,54 +731,85 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45.46</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>17496</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12-C10</f>
+        <v>928</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <v>4166.72</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(F12,F13)</f>
+        <v>5328.26</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5328.26</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2">
-        <f>SUM(G2:G11)</f>
-        <v>9732.86</v>
-      </c>
-      <c r="H13" s="2">
-        <f>SUM(H2:H11)</f>
-        <v>9732.86</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9264</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13-C11</f>
+        <v>478</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="4"/>
+        <v>1161.54</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2">
+        <f>SUM(G2:G13)</f>
+        <v>15061.12</v>
+      </c>
+      <c r="H14" s="2">
+        <f>SUM(H2:H13)</f>
+        <v>15061.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <f>SUM(H13,-G13)</f>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <f>SUM(H14,-G14)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/183ee.xlsx
+++ b/sputnik/personal/ee/183ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -781,37 +781,85 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
+      <c r="A14" s="4">
+        <v>44008</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>18376</v>
+      </c>
+      <c r="D14" s="3">
+        <f>C14-C12</f>
+        <v>880</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F15" si="5">D14*E14</f>
+        <v>3951.2000000000003</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>5073.8600000000006</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5073.8599999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9726</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15-C13</f>
+        <v>462</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="5"/>
+        <v>1122.6600000000001</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="2">
-        <f>SUM(G2:G13)</f>
-        <v>15061.12</v>
-      </c>
-      <c r="H14" s="2">
-        <f>SUM(H2:H13)</f>
-        <v>15061.12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
+      <c r="G16" s="2">
+        <f>SUM(G2:G15)</f>
+        <v>20134.980000000003</v>
+      </c>
+      <c r="H16" s="2">
+        <f>SUM(H2:H15)</f>
+        <v>20134.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <f>SUM(H14,-G14)</f>
-        <v>0</v>
-      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/183ee.xlsx
+++ b/sputnik/personal/ee/183ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -832,34 +832,85 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
-        <f>SUM(G2:G15)</f>
-        <v>20134.980000000003</v>
+      <c r="A16" s="4">
+        <v>44062</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>18794</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16-C14</f>
+        <v>418</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
+        <v>1968.78</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(F16,F17)</f>
+        <v>2330.88</v>
       </c>
       <c r="H16" s="2">
-        <f>SUM(H2:H15)</f>
-        <v>20134.98</v>
+        <v>2330.88</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>11</v>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9868</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C17-C15</f>
+        <v>142</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="6"/>
+        <v>362.09999999999997</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2">
+        <f>SUM(G2:G17)</f>
+        <v>22465.860000000004</v>
+      </c>
+      <c r="H18" s="2">
+        <f>SUM(H2:H17)</f>
+        <v>22465.86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/183ee.xlsx
+++ b/sputnik/personal/ee/183ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -740,14 +740,14 @@
         <v>17496</v>
       </c>
       <c r="D12" s="3">
-        <f>C12-C10</f>
+        <f t="shared" ref="D12:D19" si="4">C12-C10</f>
         <v>928</v>
       </c>
       <c r="E12" s="6">
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
         <v>4166.72</v>
       </c>
       <c r="G12" s="9">
@@ -767,14 +767,14 @@
         <v>9264</v>
       </c>
       <c r="D13" s="3">
-        <f>C13-C11</f>
+        <f t="shared" si="4"/>
         <v>478</v>
       </c>
       <c r="E13" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1161.54</v>
       </c>
       <c r="G13" s="2"/>
@@ -791,14 +791,14 @@
         <v>18376</v>
       </c>
       <c r="D14" s="3">
-        <f>C14-C12</f>
+        <f t="shared" si="4"/>
         <v>880</v>
       </c>
       <c r="E14" s="6">
         <v>4.49</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" ref="F14:F15" si="5">D14*E14</f>
+        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
         <v>3951.2000000000003</v>
       </c>
       <c r="G14" s="9">
@@ -818,14 +818,14 @@
         <v>9726</v>
       </c>
       <c r="D15" s="3">
-        <f>C15-C13</f>
+        <f t="shared" si="4"/>
         <v>462</v>
       </c>
       <c r="E15" s="6">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1122.6600000000001</v>
       </c>
       <c r="G15" s="2"/>
@@ -842,14 +842,14 @@
         <v>18794</v>
       </c>
       <c r="D16" s="3">
-        <f>C16-C14</f>
+        <f t="shared" si="4"/>
         <v>418</v>
       </c>
       <c r="E16" s="6">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
+        <f t="shared" ref="F16:F17" si="7">D16*E16</f>
         <v>1968.78</v>
       </c>
       <c r="G16" s="9">
@@ -869,48 +869,99 @@
         <v>9868</v>
       </c>
       <c r="D17" s="3">
-        <f>C17-C15</f>
+        <f t="shared" si="4"/>
         <v>142</v>
       </c>
       <c r="E17" s="6">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>362.09999999999997</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="A18" s="4">
+        <v>44117</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>19262</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="4"/>
+        <v>468</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="8">D18*E18</f>
+        <v>2204.2800000000002</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(F18,F19)</f>
+        <v>2548.5300000000002</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2548.5300000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10003</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="8"/>
+        <v>344.25</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G20" s="2">
         <f>SUM(G2:G17)</f>
         <v>22465.860000000004</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H20" s="2">
         <f>SUM(H2:H17)</f>
         <v>22465.86</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/183ee.xlsx
+++ b/sputnik/personal/ee/183ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,34 +934,85 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
+      <c r="A20" s="4">
+        <v>44207</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>19503</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="9">C20-C18</f>
+        <v>241</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="10">D20*E20</f>
+        <v>1135.1099999999999</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(F20,F21)</f>
+        <v>1275.3599999999999</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1275.3599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10058</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="10"/>
+        <v>140.25</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G22" s="2">
         <f>SUM(G2:G17)</f>
         <v>22465.860000000004</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H22" s="2">
         <f>SUM(H2:H17)</f>
         <v>22465.86</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/183ee.xlsx
+++ b/sputnik/personal/ee/183ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -985,34 +985,85 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="2">
-        <f>SUM(G2:G17)</f>
-        <v>22465.860000000004</v>
+      <c r="A22" s="4">
+        <v>44362</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>19860</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="11">C22-C20</f>
+        <v>357</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F23" si="12">D22*E22</f>
+        <v>1681.47</v>
+      </c>
+      <c r="G22" s="9">
+        <f>SUM(F22,F23)</f>
+        <v>2242.4700000000003</v>
       </c>
       <c r="H22" s="2">
-        <f>SUM(H2:H17)</f>
-        <v>22465.86</v>
+        <v>2242.4699999999998</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
-        <v>11</v>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10278</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="11"/>
+        <v>220</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="12"/>
+        <v>561</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <f>SUM(G2:G23)</f>
+        <v>28532.220000000005</v>
+      </c>
+      <c r="H24" s="2">
+        <f>SUM(H2:H23)</f>
+        <v>28532.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/183ee.xlsx
+++ b/sputnik/personal/ee/183ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -448,10 +448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1036,34 +1036,85 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
+      <c r="A24" s="4">
+        <v>44494</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20648</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="13">C24-C22</f>
+        <v>788</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:F25" si="14">D24*E24</f>
+        <v>3908.48</v>
+      </c>
+      <c r="G24" s="9">
+        <f>SUM(F24,F25)</f>
+        <v>4361.3999999999996</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4361.3999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10447</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="13"/>
+        <v>169</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="14"/>
+        <v>452.92</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G26" s="2">
         <f>SUM(G2:G23)</f>
         <v>28532.220000000005</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H26" s="2">
         <f>SUM(H2:H23)</f>
         <v>28532.22</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
